--- a/imetools/dupstat.xlsx
+++ b/imetools/dupstat.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaima/src/toys/imetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D727F99D-0FC0-F747-8930-434A7DCD9346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44C2F4D-778B-7543-87A7-5FD37154D6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1040" windowWidth="28240" windowHeight="17440" xr2:uid="{7700DDDC-BC3E-624E-9937-9FA3AEFD89B0}"/>
+    <workbookView xWindow="2740" yWindow="500" windowWidth="30860" windowHeight="18780" xr2:uid="{7700DDDC-BC3E-624E-9937-9FA3AEFD89B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据统计表" sheetId="1" r:id="rId1"/>
+    <sheet name="GB选重情况" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="747">
   <si>
     <t>五笔98</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +105,2210 @@
   </si>
   <si>
     <t>徐码（新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>986五笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翱</t>
+  </si>
+  <si>
+    <t>rdfn</t>
+  </si>
+  <si>
+    <t>赁</t>
+  </si>
+  <si>
+    <t>wtf</t>
+  </si>
+  <si>
+    <t>靡</t>
+  </si>
+  <si>
+    <t>oss</t>
+  </si>
+  <si>
+    <t>譬</t>
+  </si>
+  <si>
+    <t>nku</t>
+  </si>
+  <si>
+    <t>泻</t>
+  </si>
+  <si>
+    <t>ipg</t>
+  </si>
+  <si>
+    <t>臻</t>
+  </si>
+  <si>
+    <t>gcf</t>
+  </si>
+  <si>
+    <t>乇</t>
+  </si>
+  <si>
+    <t>tav</t>
+  </si>
+  <si>
+    <t>赜</t>
+  </si>
+  <si>
+    <t>ahkm</t>
+  </si>
+  <si>
+    <t>劓</t>
+  </si>
+  <si>
+    <t>thlj</t>
+  </si>
+  <si>
+    <t>亻</t>
+  </si>
+  <si>
+    <t>wth</t>
+  </si>
+  <si>
+    <t>仵</t>
+  </si>
+  <si>
+    <t>wtfh</t>
+  </si>
+  <si>
+    <t>佴</t>
+  </si>
+  <si>
+    <t>wbg</t>
+  </si>
+  <si>
+    <t>佾</t>
+  </si>
+  <si>
+    <t>wweg</t>
+  </si>
+  <si>
+    <t>儇</t>
+  </si>
+  <si>
+    <t>wlge</t>
+  </si>
+  <si>
+    <t>亠</t>
+  </si>
+  <si>
+    <t>yyg</t>
+  </si>
+  <si>
+    <t>冫</t>
+  </si>
+  <si>
+    <t>uyg</t>
+  </si>
+  <si>
+    <t>冖</t>
+  </si>
+  <si>
+    <t>pyn</t>
+  </si>
+  <si>
+    <t>讠</t>
+  </si>
+  <si>
+    <t>yyn</t>
+  </si>
+  <si>
+    <t>阝</t>
+  </si>
+  <si>
+    <t>bnh</t>
+  </si>
+  <si>
+    <t>圹</t>
+  </si>
+  <si>
+    <t>fot</t>
+  </si>
+  <si>
+    <t>圯</t>
+  </si>
+  <si>
+    <t>fnn</t>
+  </si>
+  <si>
+    <t>尢</t>
+  </si>
+  <si>
+    <t>dnv</t>
+  </si>
+  <si>
+    <t>嗬</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>囗</t>
+  </si>
+  <si>
+    <t>lhng</t>
+  </si>
+  <si>
+    <t>徂</t>
+  </si>
+  <si>
+    <t>tegg</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>txty</t>
+  </si>
+  <si>
+    <t>狎</t>
+  </si>
+  <si>
+    <t>elh</t>
+  </si>
+  <si>
+    <t>忮</t>
+  </si>
+  <si>
+    <t>nfcy</t>
+  </si>
+  <si>
+    <t>闩</t>
+  </si>
+  <si>
+    <t>ugd</t>
+  </si>
+  <si>
+    <t>阏</t>
+  </si>
+  <si>
+    <t>uywu</t>
+  </si>
+  <si>
+    <t>丬</t>
+  </si>
+  <si>
+    <t>uygh</t>
+  </si>
+  <si>
+    <t>渫</t>
+  </si>
+  <si>
+    <t>ians</t>
+  </si>
+  <si>
+    <t>遒</t>
+  </si>
+  <si>
+    <t>usgp</t>
+  </si>
+  <si>
+    <t>嬖</t>
+  </si>
+  <si>
+    <t>nkuv</t>
+  </si>
+  <si>
+    <t>柰</t>
+  </si>
+  <si>
+    <t>sfiu</t>
+  </si>
+  <si>
+    <t>猷</t>
+  </si>
+  <si>
+    <t>usgd</t>
+  </si>
+  <si>
+    <t>轹</t>
+  </si>
+  <si>
+    <t>lqiy</t>
+  </si>
+  <si>
+    <t>辂</t>
+  </si>
+  <si>
+    <t>ltkg</t>
+  </si>
+  <si>
+    <t>牖</t>
+  </si>
+  <si>
+    <t>thgs</t>
+  </si>
+  <si>
+    <t>觳</t>
+  </si>
+  <si>
+    <t>fpg</t>
+  </si>
+  <si>
+    <t>罟</t>
+  </si>
+  <si>
+    <t>ldf</t>
+  </si>
+  <si>
+    <t>罾</t>
+  </si>
+  <si>
+    <t>lulj</t>
+  </si>
+  <si>
+    <t>钆</t>
+  </si>
+  <si>
+    <t>qnn</t>
+  </si>
+  <si>
+    <t>锔</t>
+  </si>
+  <si>
+    <t>qnnk</t>
+  </si>
+  <si>
+    <t>皤</t>
+  </si>
+  <si>
+    <t>rtol</t>
+  </si>
+  <si>
+    <t>瓠</t>
+  </si>
+  <si>
+    <t>dfn</t>
+  </si>
+  <si>
+    <t>鹬</t>
+  </si>
+  <si>
+    <t>cjt</t>
+  </si>
+  <si>
+    <t>疔</t>
+  </si>
+  <si>
+    <t>usk</t>
+  </si>
+  <si>
+    <t>痄</t>
+  </si>
+  <si>
+    <t>uthf</t>
+  </si>
+  <si>
+    <t>痖</t>
+  </si>
+  <si>
+    <t>ugod</t>
+  </si>
+  <si>
+    <t>瘅</t>
+  </si>
+  <si>
+    <t>uujf</t>
+  </si>
+  <si>
+    <t>衤</t>
+  </si>
+  <si>
+    <t>pui</t>
+  </si>
+  <si>
+    <t>蝥</t>
+  </si>
+  <si>
+    <t>cjtj</t>
+  </si>
+  <si>
+    <t>舁</t>
+  </si>
+  <si>
+    <t>eaj</t>
+  </si>
+  <si>
+    <t>襞</t>
+  </si>
+  <si>
+    <t>nkue</t>
+  </si>
+  <si>
+    <t>羯</t>
+  </si>
+  <si>
+    <t>ujq</t>
+  </si>
+  <si>
+    <t>翡</t>
+  </si>
+  <si>
+    <t>jdd</t>
+  </si>
+  <si>
+    <t>酲</t>
+  </si>
+  <si>
+    <t>sgkg</t>
+  </si>
+  <si>
+    <t>醑</t>
+  </si>
+  <si>
+    <t>sgne</t>
+  </si>
+  <si>
+    <t>踯</t>
+  </si>
+  <si>
+    <t>ludb</t>
+  </si>
+  <si>
+    <t>貘</t>
+  </si>
+  <si>
+    <t>eajd</t>
+  </si>
+  <si>
+    <t>鲅</t>
+  </si>
+  <si>
+    <t>qgd</t>
+  </si>
+  <si>
+    <t>鲥</t>
+  </si>
+  <si>
+    <t>qgjf</t>
+  </si>
+  <si>
+    <t>麽</t>
+  </si>
+  <si>
+    <t>ossc</t>
+  </si>
+  <si>
+    <t>黩</t>
+  </si>
+  <si>
+    <t>lfod</t>
+  </si>
+  <si>
+    <t>黪</t>
+  </si>
+  <si>
+    <t>lfoe</t>
+  </si>
+  <si>
+    <t>鼢</t>
+  </si>
+  <si>
+    <t>enuv</t>
+  </si>
+  <si>
+    <t>匚</t>
+  </si>
+  <si>
+    <t>agn</t>
+  </si>
+  <si>
+    <t>凵</t>
+  </si>
+  <si>
+    <t>甓</t>
+  </si>
+  <si>
+    <t>nkuy</t>
+  </si>
+  <si>
+    <t>鲣</t>
+  </si>
+  <si>
+    <t>卩</t>
+  </si>
+  <si>
+    <t>篡</t>
+  </si>
+  <si>
+    <t>thdc</t>
+  </si>
+  <si>
+    <t>寸</t>
+  </si>
+  <si>
+    <t>fghy</t>
+  </si>
+  <si>
+    <t>柑</t>
+  </si>
+  <si>
+    <t>sfg</t>
+  </si>
+  <si>
+    <t>竿</t>
+  </si>
+  <si>
+    <t>tfj</t>
+  </si>
+  <si>
+    <t>秸</t>
+  </si>
+  <si>
+    <t>tfkg</t>
+  </si>
+  <si>
+    <t>魁</t>
+  </si>
+  <si>
+    <t>rqcf</t>
+  </si>
+  <si>
+    <t>拎</t>
+  </si>
+  <si>
+    <t>rwyc</t>
+  </si>
+  <si>
+    <t>ossd</t>
+  </si>
+  <si>
+    <t>啮</t>
+  </si>
+  <si>
+    <t>khwb</t>
+  </si>
+  <si>
+    <t>钎</t>
+  </si>
+  <si>
+    <t>qtfh</t>
+  </si>
+  <si>
+    <t>仟</t>
+  </si>
+  <si>
+    <t>遣</t>
+  </si>
+  <si>
+    <t>khgp</t>
+  </si>
+  <si>
+    <t>闰</t>
+  </si>
+  <si>
+    <t>仕</t>
+  </si>
+  <si>
+    <t>wfg</t>
+  </si>
+  <si>
+    <t>丸</t>
+  </si>
+  <si>
+    <t>vyi</t>
+  </si>
+  <si>
+    <t>戊</t>
+  </si>
+  <si>
+    <t>dgty</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>gcft</t>
+  </si>
+  <si>
+    <t>劐</t>
+  </si>
+  <si>
+    <t>awyj</t>
+  </si>
+  <si>
+    <t>邗</t>
+  </si>
+  <si>
+    <t>fbh</t>
+  </si>
+  <si>
+    <t>邝</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>圮</t>
+  </si>
+  <si>
+    <t>芏</t>
+  </si>
+  <si>
+    <t>aff</t>
+  </si>
+  <si>
+    <t>芰</t>
+  </si>
+  <si>
+    <t>afcu</t>
+  </si>
+  <si>
+    <t>苜</t>
+  </si>
+  <si>
+    <t>ahf</t>
+  </si>
+  <si>
+    <t>茗</t>
+  </si>
+  <si>
+    <t>aqkf</t>
+  </si>
+  <si>
+    <t>葑</t>
+  </si>
+  <si>
+    <t>afff</t>
+  </si>
+  <si>
+    <t>蓍</t>
+  </si>
+  <si>
+    <t>aftj</t>
+  </si>
+  <si>
+    <t>kawk</t>
+  </si>
+  <si>
+    <t>噙</t>
+  </si>
+  <si>
+    <t>kwyc</t>
+  </si>
+  <si>
+    <t>岱</t>
+  </si>
+  <si>
+    <t>waym</t>
+  </si>
+  <si>
+    <t>徵</t>
+  </si>
+  <si>
+    <t>tmgt</t>
+  </si>
+  <si>
+    <t>狃</t>
+  </si>
+  <si>
+    <t>qtng</t>
+  </si>
+  <si>
+    <t>汨</t>
+  </si>
+  <si>
+    <t>ijg</t>
+  </si>
+  <si>
+    <t>骅</t>
+  </si>
+  <si>
+    <t>cgwf</t>
+  </si>
+  <si>
+    <t>骜</t>
+  </si>
+  <si>
+    <t>gqtg</t>
+  </si>
+  <si>
+    <t>柘</t>
+  </si>
+  <si>
+    <t>sdg</t>
+  </si>
+  <si>
+    <t>檎</t>
+  </si>
+  <si>
+    <t>swyc</t>
+  </si>
+  <si>
+    <t>肜</t>
+  </si>
+  <si>
+    <t>eet</t>
+  </si>
+  <si>
+    <t>歙</t>
+  </si>
+  <si>
+    <t>wgkw</t>
+  </si>
+  <si>
+    <t>fpgc</t>
+  </si>
+  <si>
+    <t>祀</t>
+  </si>
+  <si>
+    <t>pynn</t>
+  </si>
+  <si>
+    <t>钇</t>
+  </si>
+  <si>
+    <t>钍</t>
+  </si>
+  <si>
+    <t>qfg</t>
+  </si>
+  <si>
+    <t>鹜</t>
+  </si>
+  <si>
+    <t>cnhg</t>
+  </si>
+  <si>
+    <t>鹭</t>
+  </si>
+  <si>
+    <t>khtg</t>
+  </si>
+  <si>
+    <t>翊</t>
+  </si>
+  <si>
+    <t>ung</t>
+  </si>
+  <si>
+    <t>竦</t>
+  </si>
+  <si>
+    <t>uskg</t>
+  </si>
+  <si>
+    <t>颔</t>
+  </si>
+  <si>
+    <t>wynm</t>
+  </si>
+  <si>
+    <t>cnhj</t>
+  </si>
+  <si>
+    <t>ujqn</t>
+  </si>
+  <si>
+    <t>醭</t>
+  </si>
+  <si>
+    <t>sgog</t>
+  </si>
+  <si>
+    <t>蹰</t>
+  </si>
+  <si>
+    <t>khdf</t>
+  </si>
+  <si>
+    <t>龀</t>
+  </si>
+  <si>
+    <t>hwbx</t>
+  </si>
+  <si>
+    <t>龆</t>
+  </si>
+  <si>
+    <t>hwbk</t>
+  </si>
+  <si>
+    <t>qgdy</t>
+  </si>
+  <si>
+    <t>鲈</t>
+  </si>
+  <si>
+    <t>qghn</t>
+  </si>
+  <si>
+    <t>麂</t>
+  </si>
+  <si>
+    <t>oxxw</t>
+  </si>
+  <si>
+    <t>麈</t>
+  </si>
+  <si>
+    <t>oxxg</t>
+  </si>
+  <si>
+    <t>98五笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耙</t>
+  </si>
+  <si>
+    <t>amb</t>
+  </si>
+  <si>
+    <t>翟</t>
+  </si>
+  <si>
+    <t>zui</t>
+  </si>
+  <si>
+    <t>羔</t>
+  </si>
+  <si>
+    <t>gch</t>
+  </si>
+  <si>
+    <t>汞</t>
+  </si>
+  <si>
+    <t>uks</t>
+  </si>
+  <si>
+    <t>隶</t>
+  </si>
+  <si>
+    <t>bks</t>
+  </si>
+  <si>
+    <t>扦</t>
+  </si>
+  <si>
+    <t>ulq</t>
+  </si>
+  <si>
+    <t>戍</t>
+  </si>
+  <si>
+    <t>nid</t>
+  </si>
+  <si>
+    <t>邑</t>
+  </si>
+  <si>
+    <t>dmb</t>
+  </si>
+  <si>
+    <t>匝</t>
+  </si>
+  <si>
+    <t>nrj</t>
+  </si>
+  <si>
+    <t>柞</t>
+  </si>
+  <si>
+    <t>ewa</t>
+  </si>
+  <si>
+    <t>丨</t>
+  </si>
+  <si>
+    <t>gs</t>
+  </si>
+  <si>
+    <t>乜</t>
+  </si>
+  <si>
+    <t>aae</t>
+  </si>
+  <si>
+    <t>厍</t>
+  </si>
+  <si>
+    <t>xyc</t>
+  </si>
+  <si>
+    <t>叵</t>
+  </si>
+  <si>
+    <t>ndk</t>
+  </si>
+  <si>
+    <t>刂</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>剡</t>
+  </si>
+  <si>
+    <t>ccpd</t>
+  </si>
+  <si>
+    <t>仃</t>
+  </si>
+  <si>
+    <t>jad</t>
+  </si>
+  <si>
+    <t>氽</t>
+  </si>
+  <si>
+    <t>jks</t>
+  </si>
+  <si>
+    <t>冁</t>
+  </si>
+  <si>
+    <t>hqnt</t>
+  </si>
+  <si>
+    <t>zt</t>
+  </si>
+  <si>
+    <t>羸</t>
+  </si>
+  <si>
+    <t>fdvi</t>
+  </si>
+  <si>
+    <t>wb</t>
+  </si>
+  <si>
+    <t>zj</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>陴</t>
+  </si>
+  <si>
+    <t>tutn</t>
+  </si>
+  <si>
+    <t>xte</t>
+  </si>
+  <si>
+    <t>邙</t>
+  </si>
+  <si>
+    <t>fte</t>
+  </si>
+  <si>
+    <t>邡</t>
+  </si>
+  <si>
+    <t>lte</t>
+  </si>
+  <si>
+    <t>刍</t>
+  </si>
+  <si>
+    <t>xbj</t>
+  </si>
+  <si>
+    <t>廴</t>
+  </si>
+  <si>
+    <t>uy</t>
+  </si>
+  <si>
+    <t>厶</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>埙</t>
+  </si>
+  <si>
+    <t>gdob</t>
+  </si>
+  <si>
+    <t>埴</t>
+  </si>
+  <si>
+    <t>gnqf</t>
+  </si>
+  <si>
+    <t>艹</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>苴</t>
+  </si>
+  <si>
+    <t>lfq</t>
+  </si>
+  <si>
+    <t>茑</t>
+  </si>
+  <si>
+    <t>lxn</t>
+  </si>
+  <si>
+    <t>茈</t>
+  </si>
+  <si>
+    <t>lsvb</t>
+  </si>
+  <si>
+    <t>茛</t>
+  </si>
+  <si>
+    <t>lig</t>
+  </si>
+  <si>
+    <t>lqor</t>
+  </si>
+  <si>
+    <t>扌</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>叻</t>
+  </si>
+  <si>
+    <t>dsl</t>
+  </si>
+  <si>
+    <t>呙</t>
+  </si>
+  <si>
+    <t>dmjr</t>
+  </si>
+  <si>
+    <t>圊</t>
+  </si>
+  <si>
+    <t>ravy</t>
+  </si>
+  <si>
+    <t>帏</t>
+  </si>
+  <si>
+    <t>rgw</t>
+  </si>
+  <si>
+    <t>帱</t>
+  </si>
+  <si>
+    <t>rakc</t>
+  </si>
+  <si>
+    <t>帷</t>
+  </si>
+  <si>
+    <t>rui</t>
+  </si>
+  <si>
+    <t>屺</t>
+  </si>
+  <si>
+    <t>vvj</t>
+  </si>
+  <si>
+    <t>岜</t>
+  </si>
+  <si>
+    <t>vmb</t>
+  </si>
+  <si>
+    <t>岽</t>
+  </si>
+  <si>
+    <t>vryx</t>
+  </si>
+  <si>
+    <t>岣</t>
+  </si>
+  <si>
+    <t>vgj</t>
+  </si>
+  <si>
+    <t>峁</t>
+  </si>
+  <si>
+    <t>vbm</t>
+  </si>
+  <si>
+    <t>崦</t>
+  </si>
+  <si>
+    <t>vmoa</t>
+  </si>
+  <si>
+    <t>崾</t>
+  </si>
+  <si>
+    <t>vvbn</t>
+  </si>
+  <si>
+    <t>wfq</t>
+  </si>
+  <si>
+    <t>徉</t>
+  </si>
+  <si>
+    <t>wgy</t>
+  </si>
+  <si>
+    <t>wvfh</t>
+  </si>
+  <si>
+    <t>彡</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>犭</t>
+  </si>
+  <si>
+    <t>mq</t>
+  </si>
+  <si>
+    <t>犴</t>
+  </si>
+  <si>
+    <t>meg</t>
+  </si>
+  <si>
+    <t>犷</t>
+  </si>
+  <si>
+    <t>mxg</t>
+  </si>
+  <si>
+    <t>猃</t>
+  </si>
+  <si>
+    <t>mjkf</t>
+  </si>
+  <si>
+    <t>猝</t>
+  </si>
+  <si>
+    <t>mzjn</t>
+  </si>
+  <si>
+    <t>猹</t>
+  </si>
+  <si>
+    <t>meof</t>
+  </si>
+  <si>
+    <t>夂</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>饣</t>
+  </si>
+  <si>
+    <t>qs</t>
+  </si>
+  <si>
+    <t>庳</t>
+  </si>
+  <si>
+    <t>xutn</t>
+  </si>
+  <si>
+    <t>忄</t>
+  </si>
+  <si>
+    <t>hx</t>
+  </si>
+  <si>
+    <t>hci</t>
+  </si>
+  <si>
+    <t>怫</t>
+  </si>
+  <si>
+    <t>htf</t>
+  </si>
+  <si>
+    <t>afi</t>
+  </si>
+  <si>
+    <t>aljw</t>
+  </si>
+  <si>
+    <t>爿</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>汜</t>
+  </si>
+  <si>
+    <t>kvs</t>
+  </si>
+  <si>
+    <t>泐</t>
+  </si>
+  <si>
+    <t>ktsl</t>
+  </si>
+  <si>
+    <t>泖</t>
+  </si>
+  <si>
+    <t>kbm</t>
+  </si>
+  <si>
+    <t>泮</t>
+  </si>
+  <si>
+    <t>khus</t>
+  </si>
+  <si>
+    <t>涑</t>
+  </si>
+  <si>
+    <t>kxs</t>
+  </si>
+  <si>
+    <t>浼</t>
+  </si>
+  <si>
+    <t>kwpe</t>
+  </si>
+  <si>
+    <t>渑</t>
+  </si>
+  <si>
+    <t>kdm</t>
+  </si>
+  <si>
+    <t>klae</t>
+  </si>
+  <si>
+    <t>潆</t>
+  </si>
+  <si>
+    <t>klwi</t>
+  </si>
+  <si>
+    <t>迓</t>
+  </si>
+  <si>
+    <t>luc</t>
+  </si>
+  <si>
+    <t>迮</t>
+  </si>
+  <si>
+    <t>wuc</t>
+  </si>
+  <si>
+    <t>逯</t>
+  </si>
+  <si>
+    <t>bkuc</t>
+  </si>
+  <si>
+    <t>彐</t>
+  </si>
+  <si>
+    <t>bj</t>
+  </si>
+  <si>
+    <t>屮</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>孳</t>
+  </si>
+  <si>
+    <t>hiih</t>
+  </si>
+  <si>
+    <t>孑</t>
+  </si>
+  <si>
+    <t>rfi</t>
+  </si>
+  <si>
+    <t>孓</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>骐</t>
+  </si>
+  <si>
+    <t>nzhb</t>
+  </si>
+  <si>
+    <t>骢</t>
+  </si>
+  <si>
+    <t>ntrh</t>
+  </si>
+  <si>
+    <t>纟</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>巛</t>
+  </si>
+  <si>
+    <t>oc</t>
+  </si>
+  <si>
+    <t>珞</t>
+  </si>
+  <si>
+    <t>nsg</t>
+  </si>
+  <si>
+    <t>efs</t>
+  </si>
+  <si>
+    <t>桎</t>
+  </si>
+  <si>
+    <t>eyi</t>
+  </si>
+  <si>
+    <t>椟</t>
+  </si>
+  <si>
+    <t>enam</t>
+  </si>
+  <si>
+    <t>檩</t>
+  </si>
+  <si>
+    <t>ezrf</t>
+  </si>
+  <si>
+    <t>轾</t>
+  </si>
+  <si>
+    <t>yyi</t>
+  </si>
+  <si>
+    <t>ysg</t>
+  </si>
+  <si>
+    <t>軎</t>
+  </si>
+  <si>
+    <t>ydk</t>
+  </si>
+  <si>
+    <t>旰</t>
+  </si>
+  <si>
+    <t>oeg</t>
+  </si>
+  <si>
+    <t>杲</t>
+  </si>
+  <si>
+    <t>oem</t>
+  </si>
+  <si>
+    <t>晖</t>
+  </si>
+  <si>
+    <t>owyc</t>
+  </si>
+  <si>
+    <t>赈</t>
+  </si>
+  <si>
+    <t>ofc</t>
+  </si>
+  <si>
+    <t>牦</t>
+  </si>
+  <si>
+    <t>qvm</t>
+  </si>
+  <si>
+    <t>擘</t>
+  </si>
+  <si>
+    <t>cdnu</t>
+  </si>
+  <si>
+    <t>毽</t>
+  </si>
+  <si>
+    <t>vbuy</t>
+  </si>
+  <si>
+    <t>刖</t>
+  </si>
+  <si>
+    <t>vpd</t>
+  </si>
+  <si>
+    <t>胛</t>
+  </si>
+  <si>
+    <t>vsj</t>
+  </si>
+  <si>
+    <t>胲</t>
+  </si>
+  <si>
+    <t>vkh</t>
+  </si>
+  <si>
+    <t>脒</t>
+  </si>
+  <si>
+    <t>vpm</t>
+  </si>
+  <si>
+    <t>腈</t>
+  </si>
+  <si>
+    <t>vavy</t>
+  </si>
+  <si>
+    <t>腙</t>
+  </si>
+  <si>
+    <t>vwfs</t>
+  </si>
+  <si>
+    <t>腽</t>
+  </si>
+  <si>
+    <t>voam</t>
+  </si>
+  <si>
+    <t>腧</t>
+  </si>
+  <si>
+    <t>vjvp</t>
+  </si>
+  <si>
+    <t>媵</t>
+  </si>
+  <si>
+    <t>vhhb</t>
+  </si>
+  <si>
+    <t>膦</t>
+  </si>
+  <si>
+    <t>vplv</t>
+  </si>
+  <si>
+    <t>gwfr</t>
+  </si>
+  <si>
+    <t>煳</t>
+  </si>
+  <si>
+    <t>ccvy</t>
+  </si>
+  <si>
+    <t>煸</t>
+  </si>
+  <si>
+    <t>cmic</t>
+  </si>
+  <si>
+    <t>煺</t>
+  </si>
+  <si>
+    <t>ciuc</t>
+  </si>
+  <si>
+    <t>燔</t>
+  </si>
+  <si>
+    <t>ctpq</t>
+  </si>
+  <si>
+    <t>灬</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>礻</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>祉</t>
+  </si>
+  <si>
+    <t>fsi</t>
+  </si>
+  <si>
+    <t>祜</t>
+  </si>
+  <si>
+    <t>fcg</t>
+  </si>
+  <si>
+    <t>恧</t>
+  </si>
+  <si>
+    <t>lhx</t>
+  </si>
+  <si>
+    <t>沓</t>
+  </si>
+  <si>
+    <t>kor</t>
+  </si>
+  <si>
+    <t>砟</t>
+  </si>
+  <si>
+    <t>mwa</t>
+  </si>
+  <si>
+    <t>砩</t>
+  </si>
+  <si>
+    <t>mtf</t>
+  </si>
+  <si>
+    <t>硖</t>
+  </si>
+  <si>
+    <t>mhhb</t>
+  </si>
+  <si>
+    <t>硌</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>碓</t>
+  </si>
+  <si>
+    <t>mui</t>
+  </si>
+  <si>
+    <t>眚</t>
+  </si>
+  <si>
+    <t>lqm</t>
+  </si>
+  <si>
+    <t>眙</t>
+  </si>
+  <si>
+    <t>qkdk</t>
+  </si>
+  <si>
+    <t>眭</t>
+  </si>
+  <si>
+    <t>qggt</t>
+  </si>
+  <si>
+    <t>瞍</t>
+  </si>
+  <si>
+    <t>qpgr</t>
+  </si>
+  <si>
+    <t>町</t>
+  </si>
+  <si>
+    <t>qad</t>
+  </si>
+  <si>
+    <t>畋</t>
+  </si>
+  <si>
+    <t>qhp</t>
+  </si>
+  <si>
+    <t>疃</t>
+  </si>
+  <si>
+    <t>qidl</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>钋</t>
+  </si>
+  <si>
+    <t>zyb</t>
+  </si>
+  <si>
+    <t>钐</t>
+  </si>
+  <si>
+    <t>zes</t>
+  </si>
+  <si>
+    <t>钚</t>
+  </si>
+  <si>
+    <t>zcb</t>
+  </si>
+  <si>
+    <t>钬</t>
+  </si>
+  <si>
+    <t>zch</t>
+  </si>
+  <si>
+    <t>钯</t>
+  </si>
+  <si>
+    <t>zmb</t>
+  </si>
+  <si>
+    <t>钿</t>
+  </si>
+  <si>
+    <t>zqt</t>
+  </si>
+  <si>
+    <t>镟</t>
+  </si>
+  <si>
+    <t>zlet</t>
+  </si>
+  <si>
+    <t>秕</t>
+  </si>
+  <si>
+    <t>xvvb</t>
+  </si>
+  <si>
+    <t>稹</t>
+  </si>
+  <si>
+    <t>xnqh</t>
+  </si>
+  <si>
+    <t>utpq</t>
+  </si>
+  <si>
+    <t>瓞</t>
+  </si>
+  <si>
+    <t>ythf</t>
+  </si>
+  <si>
+    <t>疒</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>疖</t>
+  </si>
+  <si>
+    <t>azj</t>
+  </si>
+  <si>
+    <t>疳</t>
+  </si>
+  <si>
+    <t>azg</t>
+  </si>
+  <si>
+    <t>ahqn</t>
+  </si>
+  <si>
+    <t>瘌</t>
+  </si>
+  <si>
+    <t>axpd</t>
+  </si>
+  <si>
+    <t>窬</t>
+  </si>
+  <si>
+    <t>ejvp</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>裉</t>
+  </si>
+  <si>
+    <t>tig</t>
+  </si>
+  <si>
+    <t>裣</t>
+  </si>
+  <si>
+    <t>tjkf</t>
+  </si>
+  <si>
+    <t>疋</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>胥</t>
+  </si>
+  <si>
+    <t>tvy</t>
+  </si>
+  <si>
+    <t>耔</t>
+  </si>
+  <si>
+    <t>ahi</t>
+  </si>
+  <si>
+    <t>耢</t>
+  </si>
+  <si>
+    <t>alws</t>
+  </si>
+  <si>
+    <t>耧</t>
+  </si>
+  <si>
+    <t>apbn</t>
+  </si>
+  <si>
+    <t>虿</t>
+  </si>
+  <si>
+    <t>fpcc</t>
+  </si>
+  <si>
+    <t>蚍</t>
+  </si>
+  <si>
+    <t>cvvb</t>
+  </si>
+  <si>
+    <t>蛄</t>
+  </si>
+  <si>
+    <t>ccg</t>
+  </si>
+  <si>
+    <t>蚵</t>
+  </si>
+  <si>
+    <t>czk</t>
+  </si>
+  <si>
+    <t>蚰</t>
+  </si>
+  <si>
+    <t>cdy</t>
+  </si>
+  <si>
+    <t>蛲</t>
+  </si>
+  <si>
+    <t>cpfp</t>
+  </si>
+  <si>
+    <t>蛭</t>
+  </si>
+  <si>
+    <t>cyi</t>
+  </si>
+  <si>
+    <t>蛘</t>
+  </si>
+  <si>
+    <t>cgy</t>
+  </si>
+  <si>
+    <t>蛑</t>
+  </si>
+  <si>
+    <t>ckqn</t>
+  </si>
+  <si>
+    <t>蛸</t>
+  </si>
+  <si>
+    <t>cyvy</t>
+  </si>
+  <si>
+    <t>螯</t>
+  </si>
+  <si>
+    <t>aphc</t>
+  </si>
+  <si>
+    <t>笕</t>
+  </si>
+  <si>
+    <t>rej</t>
+  </si>
+  <si>
+    <t>箦</t>
+  </si>
+  <si>
+    <t>raob</t>
+  </si>
+  <si>
+    <t>舡</t>
+  </si>
+  <si>
+    <t>iug</t>
+  </si>
+  <si>
+    <t>舭</t>
+  </si>
+  <si>
+    <t>ivvb</t>
+  </si>
+  <si>
+    <t>舫</t>
+  </si>
+  <si>
+    <t>ilf</t>
+  </si>
+  <si>
+    <t>羝</t>
+  </si>
+  <si>
+    <t>gbid</t>
+  </si>
+  <si>
+    <t>敉</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>趄</t>
+  </si>
+  <si>
+    <t>pfq</t>
+  </si>
+  <si>
+    <t>酐</t>
+  </si>
+  <si>
+    <t>yeg</t>
+  </si>
+  <si>
+    <t>醌</t>
+  </si>
+  <si>
+    <t>yovv</t>
+  </si>
+  <si>
+    <t>豕</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>跬</t>
+  </si>
+  <si>
+    <t>pggt</t>
+  </si>
+  <si>
+    <t>躜</t>
+  </si>
+  <si>
+    <t>pqpo</t>
+  </si>
+  <si>
+    <t>豸</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>lpdk</t>
+  </si>
+  <si>
+    <t>隽</t>
+  </si>
+  <si>
+    <t>uvn</t>
+  </si>
+  <si>
+    <t>雒</t>
+  </si>
+  <si>
+    <t>sui</t>
+  </si>
+  <si>
+    <t>鲂</t>
+  </si>
+  <si>
+    <t>wlf</t>
+  </si>
+  <si>
+    <t>鲐</t>
+  </si>
+  <si>
+    <t>wkdk</t>
+  </si>
+  <si>
+    <t>鲔</t>
+  </si>
+  <si>
+    <t>wnvy</t>
+  </si>
+  <si>
+    <t>鲮</t>
+  </si>
+  <si>
+    <t>wghh</t>
+  </si>
+  <si>
+    <t>鲱</t>
+  </si>
+  <si>
+    <t>wrf</t>
+  </si>
+  <si>
+    <t>鲷</t>
+  </si>
+  <si>
+    <t>wmgd</t>
+  </si>
+  <si>
+    <t>鳇</t>
+  </si>
+  <si>
+    <t>wunw</t>
+  </si>
+  <si>
+    <t>鳐</t>
+  </si>
+  <si>
+    <t>wyaf</t>
+  </si>
+  <si>
+    <t>骶</t>
+  </si>
+  <si>
+    <t>fbid</t>
+  </si>
+  <si>
+    <t>髟</t>
+  </si>
+  <si>
+    <t>pes</t>
+  </si>
+  <si>
+    <t>xoj</t>
+  </si>
+  <si>
+    <t>鏖</t>
+  </si>
+  <si>
+    <t>xzj</t>
+  </si>
+  <si>
+    <t>pkme</t>
+  </si>
+  <si>
+    <t>phpd</t>
+  </si>
+  <si>
+    <t>鼯</t>
+  </si>
+  <si>
+    <t>pwdk</t>
+  </si>
+  <si>
+    <t>鼷</t>
+  </si>
+  <si>
+    <t>pyim</t>
+  </si>
+  <si>
+    <t>亍</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>丌</t>
+  </si>
+  <si>
+    <t>nk</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>汆</t>
+  </si>
+  <si>
+    <t>凫</t>
+  </si>
+  <si>
+    <t>mk</t>
+  </si>
+  <si>
+    <t>氵</t>
+  </si>
+  <si>
+    <t>汩</t>
+  </si>
+  <si>
+    <t>辶</t>
+  </si>
+  <si>
+    <t>uc</t>
+  </si>
+  <si>
+    <t>攵</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>肀</t>
+  </si>
+  <si>
+    <t>bv</t>
+  </si>
+  <si>
+    <t>钅</t>
+  </si>
+  <si>
+    <t>鸸</t>
+  </si>
+  <si>
+    <t>耵</t>
+  </si>
+  <si>
+    <t>虍</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>糸</t>
+  </si>
+  <si>
+    <t>酤</t>
+  </si>
+  <si>
+    <t>蠃</t>
+  </si>
+  <si>
+    <t>wg</t>
+  </si>
+  <si>
+    <t>廾</t>
+  </si>
+  <si>
+    <t>宀</t>
+  </si>
+  <si>
+    <t>旮</t>
+  </si>
+  <si>
+    <t>踌</t>
+  </si>
+  <si>
+    <t>ldfy</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>螟</t>
+  </si>
+  <si>
+    <t>jpju</t>
+  </si>
+  <si>
+    <t>磐</t>
+  </si>
+  <si>
+    <t>tuwk</t>
+  </si>
+  <si>
+    <t>品</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>卅</t>
+  </si>
+  <si>
+    <t>gkk</t>
+  </si>
+  <si>
+    <t>yygl</t>
+  </si>
+  <si>
+    <t>bnhl</t>
+  </si>
+  <si>
+    <t>芩</t>
+  </si>
+  <si>
+    <t>awnb</t>
+  </si>
+  <si>
+    <t>唛</t>
+  </si>
+  <si>
+    <t>kgty</t>
+  </si>
+  <si>
+    <t>忉</t>
+  </si>
+  <si>
+    <t>nvt</t>
+  </si>
+  <si>
+    <t>澧</t>
+  </si>
+  <si>
+    <t>imal</t>
+  </si>
+  <si>
+    <t>ngd</t>
+  </si>
+  <si>
+    <t>攴</t>
+  </si>
+  <si>
+    <t>hcu</t>
+  </si>
+  <si>
+    <t>犒</t>
+  </si>
+  <si>
+    <t>tymk</t>
+  </si>
+  <si>
+    <t>egeg</t>
+  </si>
+  <si>
+    <t>pyny</t>
+  </si>
+  <si>
+    <t>聿</t>
+  </si>
+  <si>
+    <t>vgk</t>
+  </si>
+  <si>
+    <t>畛</t>
+  </si>
+  <si>
+    <t>lwet</t>
+  </si>
+  <si>
+    <t>醪</t>
+  </si>
+  <si>
+    <t>lffg</t>
+  </si>
+  <si>
+    <t>杌</t>
+  </si>
+  <si>
+    <t>sgn</t>
+  </si>
+  <si>
+    <t>五笔86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五笔新世纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263 (缺 124)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77 (缺3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266 (缺 126)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 (缺 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4码定长方案中表现最优者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王码五笔中表现最优者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王码五笔方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非四码方案（仅供娱乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜雪猫城统计重码数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +2316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,8 +2341,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +2390,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +2500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,11 +2555,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -321,16 +2641,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -353,7 +2673,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5346700" y="6286500"/>
+          <a:off x="14655800" y="5994400"/>
           <a:ext cx="2120900" cy="5143500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -663,10 +2983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037EF2D-DA6D-6C4B-BDF2-70ACA931F94D}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -676,9 +2996,10 @@
     <col min="7" max="7" width="28.83203125" customWidth="1"/>
     <col min="8" max="8" width="22.83203125" customWidth="1"/>
     <col min="9" max="9" width="23.83203125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -703,533 +3024,843 @@
       <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="B2" s="21">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21">
+        <v>12</v>
+      </c>
+      <c r="D2" s="21">
+        <v>59</v>
+      </c>
+      <c r="E2" s="21">
+        <v>212</v>
+      </c>
+      <c r="F2" s="21">
+        <v>72</v>
+      </c>
+      <c r="G2" s="21">
+        <v>261</v>
+      </c>
+      <c r="H2" s="22">
+        <v>920</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B3" s="21">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="24">
         <v>63</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="21">
         <v>214</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="21">
         <v>77</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="21">
         <v>261</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H3" s="22">
         <v>916</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="34" t="s">
+        <v>738</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>739</v>
+      </c>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1">
+        <v>187</v>
+      </c>
+      <c r="F5" s="15">
+        <v>65</v>
+      </c>
+      <c r="G5" s="15">
+        <v>259</v>
+      </c>
+      <c r="H5" s="8">
+        <v>814</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B6" s="1">
         <v>36</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C6" s="1">
         <v>82</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>56</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E6" s="1">
         <v>177</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F6" s="1">
         <v>177</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G6" s="1">
         <v>357</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H6" s="8">
         <v>695</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B7" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D7" s="17">
         <v>14</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E7" s="13">
         <v>38</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F7" s="1">
         <v>55</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G7" s="13">
         <v>168</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H7" s="14">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B8" s="13">
         <v>0</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>61</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E8" s="15">
         <v>220</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F8" s="13">
         <v>42</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G8" s="1">
         <v>310</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H8" s="8">
         <v>1107</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="9" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H9" s="10">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I9" s="33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="J9" s="35" t="s">
+        <v>743</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="B15" s="31">
         <v>0</v>
       </c>
-      <c r="B12" s="13">
+      <c r="C15" s="21">
+        <v>3</v>
+      </c>
+      <c r="D15" s="25">
+        <v>59</v>
+      </c>
+      <c r="E15" s="25">
+        <v>209</v>
+      </c>
+      <c r="F15" s="21">
+        <v>51</v>
+      </c>
+      <c r="G15" s="21">
+        <v>239</v>
+      </c>
+      <c r="H15" s="22">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B16" s="31">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2</v>
+      </c>
+      <c r="D16" s="21">
         <v>63</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E16" s="21">
         <v>211</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F16" s="25">
         <v>19</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G16" s="25">
         <v>82</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H16" s="26">
         <v>838</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="B17" s="27">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="C17" s="28">
+        <v>8</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>735</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>53</v>
+      </c>
+      <c r="E18" s="15">
+        <v>185</v>
+      </c>
+      <c r="F18" s="13">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>72</v>
+      </c>
+      <c r="H18" s="8">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
         <v>9</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F19" s="13">
         <v>6</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G19" s="13">
         <v>37</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H19" s="14">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B20" s="13">
         <v>0</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C20" s="1">
         <v>6</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D20" s="1">
         <v>16</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E20" s="15">
         <v>46</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F20" s="1">
         <v>48</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G20" s="1">
         <v>189</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H20" s="8">
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B21" s="16">
         <v>0</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C21" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D21" s="15">
         <v>65</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E21" s="15">
         <v>226</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F21" s="1">
         <v>10</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G21" s="1">
         <v>236</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H21" s="8">
         <v>1063</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="9" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G22" s="2">
         <v>3</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H22" s="10">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="23" spans="1:11">
+      <c r="A23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
         <v>0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C23" s="3">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D23" s="3">
         <v>137</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E23" s="3">
         <v>446</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F23" s="3">
         <v>378</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G23" s="3">
         <v>1502</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H23" s="12">
         <v>2221</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="7" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="B28" s="28">
+        <v>3.516</v>
+      </c>
+      <c r="C28" s="28">
+        <v>3.70333333333333</v>
+      </c>
+      <c r="D28" s="25">
+        <v>3.794</v>
+      </c>
+      <c r="E28" s="25">
+        <v>3.9366666666666599</v>
+      </c>
+      <c r="F28" s="28">
+        <v>3.8529960053262302</v>
+      </c>
+      <c r="G28" s="28">
+        <v>3.9380452461925102</v>
+      </c>
+      <c r="H28" s="26">
+        <v>4.07868913164228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B29" s="21">
         <v>3.758</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C29" s="21">
         <v>3.8580000000000001</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D29" s="21">
         <v>3.956</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E29" s="21">
         <v>4.0333333333333297</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F29" s="21">
         <v>3.92969374167776</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G29" s="21">
         <v>3.9671743309182301</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H29" s="22">
         <v>4.1072023699314899</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7" t="s">
+      <c r="K29" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="B30" s="25">
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="C30" s="25">
+        <v>3.6560000000000001</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="25">
+        <v>3.8494136460554298</v>
+      </c>
+      <c r="G30" s="25">
+        <v>3.9370292256703801</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.8420000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.8959999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.0033333333333303</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.9227696404793599</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.96170338607127</v>
+      </c>
+      <c r="H31" s="8">
+        <v>4.0877615256433897</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B32" s="1">
         <v>3.39</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C32" s="1">
         <v>3.6480000000000001</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D32" s="1">
         <v>3.5840000000000001</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E32" s="13">
         <v>3.7753333333333301</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F32" s="1">
         <v>3.8367509986684398</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G32" s="1">
         <v>3.9123170190743699</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H32" s="14">
         <v>3.9433438252175499</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="7" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B33" s="1">
         <v>3.45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C33" s="1">
         <v>3.68733333333333</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D33" s="1">
         <v>3.6320000000000001</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E33" s="1">
         <v>3.7966666666666602</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F33" s="1">
         <v>3.8551264980026598</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G33" s="1">
         <v>3.9217802750258701</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H33" s="8">
         <v>3.9464913904832399</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B34" s="16">
         <v>3.294</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C34" s="13">
         <v>3.5960000000000001</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D34" s="16">
         <v>3.556</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E34" s="1">
         <v>3.80666666666666</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F34" s="13">
         <v>3.81624500665778</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G34" s="13">
         <v>3.9016708561289302</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H34" s="8">
         <v>4.0407331975560004</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="9" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B35" s="2">
         <v>4.234</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C35" s="2">
         <v>4.4833333333333298</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D35" s="2">
         <v>4.3899999999999997</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E35" s="2">
         <v>4.5986666666666602</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F35" s="2">
         <v>4.6420772303595204</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G35" s="2">
         <v>4.7305929321307101</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H35" s="10">
         <v>4.7393075356415402</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
+    <row r="36" spans="1:9">
+      <c r="A36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
         <v>2.9980000000000002</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C36" s="3">
         <v>3.0059999999999998</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D36" s="3">
         <v>363</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E36" s="3">
         <v>3.2933333333333299</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F36" s="3">
         <v>3.0993342210386099</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G36" s="3">
         <v>3.2183942037557198</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H36" s="12">
         <v>3.4067765228661302</v>
       </c>
     </row>
@@ -1239,4 +3870,4392 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3D84BD-AC5B-4B47-9039-663B374E39AB}">
+  <dimension ref="A3:O243"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41:O44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="1:15">
+      <c r="A3" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="M3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>695</v>
+      </c>
+      <c r="N9" t="s">
+        <v>696</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>272</v>
+      </c>
+      <c r="J10" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>697</v>
+      </c>
+      <c r="N10" t="s">
+        <v>698</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J11" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>699</v>
+      </c>
+      <c r="N11" t="s">
+        <v>700</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" t="s">
+        <v>277</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>701</v>
+      </c>
+      <c r="N12" t="s">
+        <v>702</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>278</v>
+      </c>
+      <c r="J13" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>703</v>
+      </c>
+      <c r="N13" t="s">
+        <v>704</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>280</v>
+      </c>
+      <c r="J14" t="s">
+        <v>281</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>705</v>
+      </c>
+      <c r="N14" t="s">
+        <v>706</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>192</v>
+      </c>
+      <c r="N15" t="s">
+        <v>193</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>284</v>
+      </c>
+      <c r="J16" t="s">
+        <v>285</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>286</v>
+      </c>
+      <c r="J17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" t="s">
+        <v>289</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="s">
+        <v>707</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" t="s">
+        <v>291</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>159</v>
+      </c>
+      <c r="N19" t="s">
+        <v>708</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>709</v>
+      </c>
+      <c r="N20" t="s">
+        <v>710</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" t="s">
+        <v>295</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>296</v>
+      </c>
+      <c r="J22" t="s">
+        <v>297</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>711</v>
+      </c>
+      <c r="N22" t="s">
+        <v>712</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>298</v>
+      </c>
+      <c r="J23" t="s">
+        <v>299</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>300</v>
+      </c>
+      <c r="J24" t="s">
+        <v>301</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>713</v>
+      </c>
+      <c r="N24" t="s">
+        <v>714</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>302</v>
+      </c>
+      <c r="J25" t="s">
+        <v>303</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>304</v>
+      </c>
+      <c r="J26" t="s">
+        <v>305</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>306</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>715</v>
+      </c>
+      <c r="N27" t="s">
+        <v>716</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>307</v>
+      </c>
+      <c r="J28" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>424</v>
+      </c>
+      <c r="N28" t="s">
+        <v>717</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" t="s">
+        <v>309</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>718</v>
+      </c>
+      <c r="N29" t="s">
+        <v>719</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" t="s">
+        <v>310</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>720</v>
+      </c>
+      <c r="N30" t="s">
+        <v>721</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" t="s">
+        <v>311</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>478</v>
+      </c>
+      <c r="N31" t="s">
+        <v>722</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>312</v>
+      </c>
+      <c r="J32" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>501</v>
+      </c>
+      <c r="N32" t="s">
+        <v>723</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" t="s">
+        <v>314</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>724</v>
+      </c>
+      <c r="N33" t="s">
+        <v>725</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>726</v>
+      </c>
+      <c r="N34" t="s">
+        <v>727</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>125</v>
+      </c>
+      <c r="N35" t="s">
+        <v>126</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>728</v>
+      </c>
+      <c r="N36" t="s">
+        <v>136</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="M37" t="s">
+        <v>627</v>
+      </c>
+      <c r="N37" t="s">
+        <v>729</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>139</v>
+      </c>
+      <c r="N38" t="s">
+        <v>140</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="M39" t="s">
+        <v>141</v>
+      </c>
+      <c r="N39" t="s">
+        <v>260</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>158</v>
+      </c>
+      <c r="N40" t="s">
+        <v>144</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" t="s">
+        <v>330</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="M41" t="s">
+        <v>155</v>
+      </c>
+      <c r="N41" t="s">
+        <v>708</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>331</v>
+      </c>
+      <c r="J42" t="s">
+        <v>332</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>730</v>
+      </c>
+      <c r="N42" t="s">
+        <v>731</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43" t="s">
+        <v>723</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>143</v>
+      </c>
+      <c r="N44" t="s">
+        <v>144</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>337</v>
+      </c>
+      <c r="J45" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>209</v>
+      </c>
+      <c r="J46" t="s">
+        <v>339</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>340</v>
+      </c>
+      <c r="J47" t="s">
+        <v>341</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" t="s">
+        <v>343</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>348</v>
+      </c>
+      <c r="J51" t="s">
+        <v>349</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>350</v>
+      </c>
+      <c r="J52" t="s">
+        <v>351</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>352</v>
+      </c>
+      <c r="J53" t="s">
+        <v>353</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>354</v>
+      </c>
+      <c r="J54" t="s">
+        <v>355</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J55" t="s">
+        <v>357</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" t="s">
+        <v>359</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>360</v>
+      </c>
+      <c r="J57" t="s">
+        <v>361</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>362</v>
+      </c>
+      <c r="J58" t="s">
+        <v>363</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>364</v>
+      </c>
+      <c r="J59" t="s">
+        <v>365</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>366</v>
+      </c>
+      <c r="J60" t="s">
+        <v>367</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" t="s">
+        <v>368</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J62" t="s">
+        <v>370</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>216</v>
+      </c>
+      <c r="J63" t="s">
+        <v>371</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>372</v>
+      </c>
+      <c r="J64" t="s">
+        <v>373</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>374</v>
+      </c>
+      <c r="J65" t="s">
+        <v>375</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>376</v>
+      </c>
+      <c r="J66" t="s">
+        <v>377</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>378</v>
+      </c>
+      <c r="J67" t="s">
+        <v>379</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>380</v>
+      </c>
+      <c r="J68" t="s">
+        <v>381</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>382</v>
+      </c>
+      <c r="J69" t="s">
+        <v>383</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>384</v>
+      </c>
+      <c r="J70" t="s">
+        <v>385</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>386</v>
+      </c>
+      <c r="J71" t="s">
+        <v>387</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>388</v>
+      </c>
+      <c r="J72" t="s">
+        <v>389</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>254</v>
+      </c>
+      <c r="B73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>390</v>
+      </c>
+      <c r="J73" t="s">
+        <v>391</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>392</v>
+      </c>
+      <c r="J74" t="s">
+        <v>393</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>256</v>
+      </c>
+      <c r="B75" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s">
+        <v>394</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>258</v>
+      </c>
+      <c r="B76" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>395</v>
+      </c>
+      <c r="J76" t="s">
+        <v>396</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J77" t="s">
+        <v>397</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>158</v>
+      </c>
+      <c r="F78" t="s">
+        <v>144</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s">
+        <v>398</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>399</v>
+      </c>
+      <c r="J79" t="s">
+        <v>400</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>401</v>
+      </c>
+      <c r="J80" t="s">
+        <v>402</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>403</v>
+      </c>
+      <c r="J81" t="s">
+        <v>404</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>405</v>
+      </c>
+      <c r="J82" t="s">
+        <v>406</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>407</v>
+      </c>
+      <c r="J83" t="s">
+        <v>408</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>409</v>
+      </c>
+      <c r="J84" t="s">
+        <v>410</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>411</v>
+      </c>
+      <c r="J85" t="s">
+        <v>412</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>413</v>
+      </c>
+      <c r="J86" t="s">
+        <v>414</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>81</v>
+      </c>
+      <c r="J87" t="s">
+        <v>415</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
+        <v>416</v>
+      </c>
+      <c r="J88" t="s">
+        <v>417</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>418</v>
+      </c>
+      <c r="J89" t="s">
+        <v>419</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="I90" t="s">
+        <v>420</v>
+      </c>
+      <c r="J90" t="s">
+        <v>421</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="I91" t="s">
+        <v>422</v>
+      </c>
+      <c r="J91" t="s">
+        <v>423</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="I92" t="s">
+        <v>424</v>
+      </c>
+      <c r="J92" t="s">
+        <v>425</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="I93" t="s">
+        <v>426</v>
+      </c>
+      <c r="J93" t="s">
+        <v>427</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="I94" t="s">
+        <v>428</v>
+      </c>
+      <c r="J94" t="s">
+        <v>429</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="I95" t="s">
+        <v>430</v>
+      </c>
+      <c r="J95" t="s">
+        <v>431</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="I96" t="s">
+        <v>432</v>
+      </c>
+      <c r="J96" t="s">
+        <v>433</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="9:11">
+      <c r="I97" t="s">
+        <v>434</v>
+      </c>
+      <c r="J97" t="s">
+        <v>435</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="9:11">
+      <c r="I98" t="s">
+        <v>436</v>
+      </c>
+      <c r="J98" t="s">
+        <v>437</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="9:11">
+      <c r="I99" t="s">
+        <v>438</v>
+      </c>
+      <c r="J99" t="s">
+        <v>439</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="9:11">
+      <c r="I100" t="s">
+        <v>440</v>
+      </c>
+      <c r="J100" t="s">
+        <v>441</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="9:11">
+      <c r="I101" t="s">
+        <v>442</v>
+      </c>
+      <c r="J101" t="s">
+        <v>443</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="9:11">
+      <c r="I102" t="s">
+        <v>87</v>
+      </c>
+      <c r="J102" t="s">
+        <v>444</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="9:11">
+      <c r="I103" t="s">
+        <v>445</v>
+      </c>
+      <c r="J103" t="s">
+        <v>446</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="9:11">
+      <c r="I104" t="s">
+        <v>447</v>
+      </c>
+      <c r="J104" t="s">
+        <v>448</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="9:11">
+      <c r="I105" t="s">
+        <v>449</v>
+      </c>
+      <c r="J105" t="s">
+        <v>450</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="9:11">
+      <c r="I106" t="s">
+        <v>451</v>
+      </c>
+      <c r="J106" t="s">
+        <v>452</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="9:11">
+      <c r="I107" t="s">
+        <v>93</v>
+      </c>
+      <c r="J107" t="s">
+        <v>453</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="9:11">
+      <c r="I108" t="s">
+        <v>454</v>
+      </c>
+      <c r="J108" t="s">
+        <v>455</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="9:11">
+      <c r="I109" t="s">
+        <v>456</v>
+      </c>
+      <c r="J109" t="s">
+        <v>457</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="9:11">
+      <c r="I110" t="s">
+        <v>458</v>
+      </c>
+      <c r="J110" t="s">
+        <v>459</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="9:11">
+      <c r="I111" t="s">
+        <v>460</v>
+      </c>
+      <c r="J111" t="s">
+        <v>461</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="9:11">
+      <c r="I112" t="s">
+        <v>462</v>
+      </c>
+      <c r="J112" t="s">
+        <v>463</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="9:11">
+      <c r="I113" t="s">
+        <v>464</v>
+      </c>
+      <c r="J113" t="s">
+        <v>465</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="9:11">
+      <c r="I114" t="s">
+        <v>466</v>
+      </c>
+      <c r="J114" t="s">
+        <v>467</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="9:11">
+      <c r="I115" t="s">
+        <v>468</v>
+      </c>
+      <c r="J115" t="s">
+        <v>469</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="9:11">
+      <c r="I116" t="s">
+        <v>470</v>
+      </c>
+      <c r="J116" t="s">
+        <v>471</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="9:11">
+      <c r="I117" t="s">
+        <v>472</v>
+      </c>
+      <c r="J117" t="s">
+        <v>473</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="9:11">
+      <c r="I118" t="s">
+        <v>474</v>
+      </c>
+      <c r="J118" t="s">
+        <v>475</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="9:11">
+      <c r="I119" t="s">
+        <v>476</v>
+      </c>
+      <c r="J119" t="s">
+        <v>477</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="9:11">
+      <c r="I120" t="s">
+        <v>478</v>
+      </c>
+      <c r="J120" t="s">
+        <v>479</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="9:11">
+      <c r="I121" t="s">
+        <v>480</v>
+      </c>
+      <c r="J121" t="s">
+        <v>481</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="9:11">
+      <c r="I122" t="s">
+        <v>482</v>
+      </c>
+      <c r="J122" t="s">
+        <v>483</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="9:11">
+      <c r="I123" t="s">
+        <v>484</v>
+      </c>
+      <c r="J123" t="s">
+        <v>485</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="9:11">
+      <c r="I124" t="s">
+        <v>486</v>
+      </c>
+      <c r="J124" t="s">
+        <v>487</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="9:11">
+      <c r="I125" t="s">
+        <v>488</v>
+      </c>
+      <c r="J125" t="s">
+        <v>489</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="9:11">
+      <c r="I126" t="s">
+        <v>97</v>
+      </c>
+      <c r="J126" t="s">
+        <v>490</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="9:11">
+      <c r="I127" t="s">
+        <v>491</v>
+      </c>
+      <c r="J127" t="s">
+        <v>492</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="9:11">
+      <c r="I128" t="s">
+        <v>493</v>
+      </c>
+      <c r="J128" t="s">
+        <v>494</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="9:11">
+      <c r="I129" t="s">
+        <v>495</v>
+      </c>
+      <c r="J129" t="s">
+        <v>496</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="9:11">
+      <c r="I130" t="s">
+        <v>497</v>
+      </c>
+      <c r="J130" t="s">
+        <v>498</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="9:11">
+      <c r="I131" t="s">
+        <v>499</v>
+      </c>
+      <c r="J131" t="s">
+        <v>500</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="9:11">
+      <c r="I132" t="s">
+        <v>501</v>
+      </c>
+      <c r="J132" t="s">
+        <v>502</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="9:11">
+      <c r="I133" t="s">
+        <v>503</v>
+      </c>
+      <c r="J133" t="s">
+        <v>504</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="9:11">
+      <c r="I134" t="s">
+        <v>505</v>
+      </c>
+      <c r="J134" t="s">
+        <v>506</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="9:11">
+      <c r="I135" t="s">
+        <v>507</v>
+      </c>
+      <c r="J135" t="s">
+        <v>508</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="9:11">
+      <c r="I136" t="s">
+        <v>509</v>
+      </c>
+      <c r="J136" t="s">
+        <v>510</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="9:11">
+      <c r="I137" t="s">
+        <v>511</v>
+      </c>
+      <c r="J137" t="s">
+        <v>512</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="9:11">
+      <c r="I138" t="s">
+        <v>513</v>
+      </c>
+      <c r="J138" t="s">
+        <v>514</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="9:11">
+      <c r="I139" t="s">
+        <v>515</v>
+      </c>
+      <c r="J139" t="s">
+        <v>516</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="9:11">
+      <c r="I140" t="s">
+        <v>517</v>
+      </c>
+      <c r="J140" t="s">
+        <v>518</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="9:11">
+      <c r="I141" t="s">
+        <v>519</v>
+      </c>
+      <c r="J141" t="s">
+        <v>520</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="9:11">
+      <c r="I142" t="s">
+        <v>521</v>
+      </c>
+      <c r="J142" t="s">
+        <v>522</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="9:11">
+      <c r="I143" t="s">
+        <v>523</v>
+      </c>
+      <c r="J143" t="s">
+        <v>524</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="9:11">
+      <c r="I144" t="s">
+        <v>525</v>
+      </c>
+      <c r="J144" t="s">
+        <v>526</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="9:11">
+      <c r="I145" t="s">
+        <v>527</v>
+      </c>
+      <c r="J145" t="s">
+        <v>528</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="9:11">
+      <c r="I146" t="s">
+        <v>529</v>
+      </c>
+      <c r="J146" t="s">
+        <v>530</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="9:11">
+      <c r="I147" t="s">
+        <v>531</v>
+      </c>
+      <c r="J147" t="s">
+        <v>532</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="9:11">
+      <c r="I148" t="s">
+        <v>533</v>
+      </c>
+      <c r="J148" t="s">
+        <v>534</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="9:11">
+      <c r="I149" t="s">
+        <v>99</v>
+      </c>
+      <c r="J149" t="s">
+        <v>535</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="9:11">
+      <c r="I150" t="s">
+        <v>536</v>
+      </c>
+      <c r="J150" t="s">
+        <v>537</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="9:11">
+      <c r="I151" t="s">
+        <v>538</v>
+      </c>
+      <c r="J151" t="s">
+        <v>539</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="9:11">
+      <c r="I152" t="s">
+        <v>540</v>
+      </c>
+      <c r="J152" t="s">
+        <v>541</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="9:11">
+      <c r="I153" t="s">
+        <v>542</v>
+      </c>
+      <c r="J153" t="s">
+        <v>543</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="9:11">
+      <c r="I154" t="s">
+        <v>544</v>
+      </c>
+      <c r="J154" t="s">
+        <v>545</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="9:11">
+      <c r="I155" t="s">
+        <v>546</v>
+      </c>
+      <c r="J155" t="s">
+        <v>547</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="9:11">
+      <c r="I156" t="s">
+        <v>548</v>
+      </c>
+      <c r="J156" t="s">
+        <v>549</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="9:11">
+      <c r="I157" t="s">
+        <v>550</v>
+      </c>
+      <c r="J157" t="s">
+        <v>551</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="9:11">
+      <c r="I158" t="s">
+        <v>552</v>
+      </c>
+      <c r="J158" t="s">
+        <v>553</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="9:11">
+      <c r="I159" t="s">
+        <v>107</v>
+      </c>
+      <c r="J159" t="s">
+        <v>554</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="9:11">
+      <c r="I160" t="s">
+        <v>555</v>
+      </c>
+      <c r="J160" t="s">
+        <v>556</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="9:11">
+      <c r="I161" t="s">
+        <v>557</v>
+      </c>
+      <c r="J161" t="s">
+        <v>558</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="9:11">
+      <c r="I162" t="s">
+        <v>559</v>
+      </c>
+      <c r="J162" t="s">
+        <v>560</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="9:11">
+      <c r="I163" t="s">
+        <v>561</v>
+      </c>
+      <c r="J163" t="s">
+        <v>562</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="9:11">
+      <c r="I164" t="s">
+        <v>119</v>
+      </c>
+      <c r="J164" t="s">
+        <v>563</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="9:11">
+      <c r="I165" t="s">
+        <v>564</v>
+      </c>
+      <c r="J165" t="s">
+        <v>565</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="9:11">
+      <c r="I166" t="s">
+        <v>566</v>
+      </c>
+      <c r="J166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="9:11">
+      <c r="I167" t="s">
+        <v>121</v>
+      </c>
+      <c r="J167" t="s">
+        <v>568</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="9:11">
+      <c r="I168" t="s">
+        <v>569</v>
+      </c>
+      <c r="J168" t="s">
+        <v>570</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="9:11">
+      <c r="I169" t="s">
+        <v>571</v>
+      </c>
+      <c r="J169" t="s">
+        <v>572</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="9:11">
+      <c r="I170" t="s">
+        <v>573</v>
+      </c>
+      <c r="J170" t="s">
+        <v>574</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="9:11">
+      <c r="I171" t="s">
+        <v>575</v>
+      </c>
+      <c r="J171" t="s">
+        <v>576</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="9:11">
+      <c r="I172" t="s">
+        <v>577</v>
+      </c>
+      <c r="J172" t="s">
+        <v>578</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="9:11">
+      <c r="I173" t="s">
+        <v>579</v>
+      </c>
+      <c r="J173" t="s">
+        <v>580</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="9:11">
+      <c r="I174" t="s">
+        <v>581</v>
+      </c>
+      <c r="J174" t="s">
+        <v>582</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="9:11">
+      <c r="I175" t="s">
+        <v>583</v>
+      </c>
+      <c r="J175" t="s">
+        <v>584</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="9:11">
+      <c r="I176" t="s">
+        <v>585</v>
+      </c>
+      <c r="J176" t="s">
+        <v>586</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="9:11">
+      <c r="I177" t="s">
+        <v>587</v>
+      </c>
+      <c r="J177" t="s">
+        <v>588</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="9:11">
+      <c r="I178" t="s">
+        <v>589</v>
+      </c>
+      <c r="J178" t="s">
+        <v>590</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="9:11">
+      <c r="I179" t="s">
+        <v>591</v>
+      </c>
+      <c r="J179" t="s">
+        <v>592</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="9:11">
+      <c r="I180" t="s">
+        <v>593</v>
+      </c>
+      <c r="J180" t="s">
+        <v>594</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="9:11">
+      <c r="I181" t="s">
+        <v>595</v>
+      </c>
+      <c r="J181" t="s">
+        <v>596</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="9:11">
+      <c r="I182" t="s">
+        <v>597</v>
+      </c>
+      <c r="J182" t="s">
+        <v>598</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="9:11">
+      <c r="I183" t="s">
+        <v>599</v>
+      </c>
+      <c r="J183" t="s">
+        <v>600</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="9:11">
+      <c r="I184" t="s">
+        <v>601</v>
+      </c>
+      <c r="J184" t="s">
+        <v>602</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="9:11">
+      <c r="I185" t="s">
+        <v>603</v>
+      </c>
+      <c r="J185" t="s">
+        <v>604</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="9:11">
+      <c r="I186" t="s">
+        <v>605</v>
+      </c>
+      <c r="J186" t="s">
+        <v>606</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="9:11">
+      <c r="I187" t="s">
+        <v>607</v>
+      </c>
+      <c r="J187" t="s">
+        <v>608</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="9:11">
+      <c r="I188" t="s">
+        <v>609</v>
+      </c>
+      <c r="J188" t="s">
+        <v>610</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="9:11">
+      <c r="I189" t="s">
+        <v>611</v>
+      </c>
+      <c r="J189" t="s">
+        <v>612</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="9:11">
+      <c r="I190" t="s">
+        <v>613</v>
+      </c>
+      <c r="J190" t="s">
+        <v>614</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="9:11">
+      <c r="I191" t="s">
+        <v>615</v>
+      </c>
+      <c r="J191" t="s">
+        <v>616</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="9:11">
+      <c r="I192" t="s">
+        <v>617</v>
+      </c>
+      <c r="J192" t="s">
+        <v>618</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="9:11">
+      <c r="I193" t="s">
+        <v>619</v>
+      </c>
+      <c r="J193" t="s">
+        <v>620</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="9:11">
+      <c r="I194" t="s">
+        <v>621</v>
+      </c>
+      <c r="J194" t="s">
+        <v>622</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="9:11">
+      <c r="I195" t="s">
+        <v>623</v>
+      </c>
+      <c r="J195" t="s">
+        <v>624</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="9:11">
+      <c r="I196" t="s">
+        <v>625</v>
+      </c>
+      <c r="J196" t="s">
+        <v>626</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="9:11">
+      <c r="I197" t="s">
+        <v>627</v>
+      </c>
+      <c r="J197" t="s">
+        <v>628</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="9:11">
+      <c r="I198" t="s">
+        <v>629</v>
+      </c>
+      <c r="J198" t="s">
+        <v>630</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="9:11">
+      <c r="I199" t="s">
+        <v>631</v>
+      </c>
+      <c r="J199" t="s">
+        <v>632</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="9:11">
+      <c r="I200" t="s">
+        <v>258</v>
+      </c>
+      <c r="J200" t="s">
+        <v>633</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="9:11">
+      <c r="I201" t="s">
+        <v>634</v>
+      </c>
+      <c r="J201" t="s">
+        <v>635</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="9:11">
+      <c r="I202" t="s">
+        <v>636</v>
+      </c>
+      <c r="J202" t="s">
+        <v>637</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="9:11">
+      <c r="I203" t="s">
+        <v>638</v>
+      </c>
+      <c r="J203" t="s">
+        <v>639</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="9:11">
+      <c r="I204" t="s">
+        <v>640</v>
+      </c>
+      <c r="J204" t="s">
+        <v>641</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="9:11">
+      <c r="I205" t="s">
+        <v>642</v>
+      </c>
+      <c r="J205" t="s">
+        <v>643</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="9:11">
+      <c r="I206" t="s">
+        <v>644</v>
+      </c>
+      <c r="J206" t="s">
+        <v>645</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="9:11">
+      <c r="I207" t="s">
+        <v>646</v>
+      </c>
+      <c r="J207" t="s">
+        <v>647</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="9:11">
+      <c r="I208" t="s">
+        <v>648</v>
+      </c>
+      <c r="J208" t="s">
+        <v>649</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="9:11">
+      <c r="I209" t="s">
+        <v>650</v>
+      </c>
+      <c r="J209" t="s">
+        <v>651</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="9:11">
+      <c r="I210" t="s">
+        <v>652</v>
+      </c>
+      <c r="J210" t="s">
+        <v>653</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="9:11">
+      <c r="I211" t="s">
+        <v>654</v>
+      </c>
+      <c r="J211" t="s">
+        <v>655</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="9:11">
+      <c r="I212" t="s">
+        <v>656</v>
+      </c>
+      <c r="J212" t="s">
+        <v>657</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="9:11">
+      <c r="I213" t="s">
+        <v>263</v>
+      </c>
+      <c r="J213" t="s">
+        <v>658</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="9:11">
+      <c r="I214" t="s">
+        <v>659</v>
+      </c>
+      <c r="J214" t="s">
+        <v>660</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="9:11">
+      <c r="I215" t="s">
+        <v>149</v>
+      </c>
+      <c r="J215" t="s">
+        <v>661</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="9:11">
+      <c r="I216" t="s">
+        <v>151</v>
+      </c>
+      <c r="J216" t="s">
+        <v>662</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="9:11">
+      <c r="I217" t="s">
+        <v>663</v>
+      </c>
+      <c r="J217" t="s">
+        <v>664</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="9:11">
+      <c r="I218" t="s">
+        <v>665</v>
+      </c>
+      <c r="J218" t="s">
+        <v>666</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="9:11">
+      <c r="I219" t="s">
+        <v>667</v>
+      </c>
+      <c r="J219" t="s">
+        <v>668</v>
+      </c>
+      <c r="K219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="9:11">
+      <c r="I220" t="s">
+        <v>669</v>
+      </c>
+      <c r="J220" t="s">
+        <v>330</v>
+      </c>
+      <c r="K220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="9:11">
+      <c r="I221" t="s">
+        <v>153</v>
+      </c>
+      <c r="J221" t="s">
+        <v>670</v>
+      </c>
+      <c r="K221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="9:11">
+      <c r="I222" t="s">
+        <v>37</v>
+      </c>
+      <c r="J222" t="s">
+        <v>671</v>
+      </c>
+      <c r="K222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="9:11">
+      <c r="I223" t="s">
+        <v>672</v>
+      </c>
+      <c r="J223" t="s">
+        <v>303</v>
+      </c>
+      <c r="K223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="9:11">
+      <c r="I224" t="s">
+        <v>673</v>
+      </c>
+      <c r="J224" t="s">
+        <v>658</v>
+      </c>
+      <c r="K224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="9:11">
+      <c r="I225" t="s">
+        <v>155</v>
+      </c>
+      <c r="J225" t="s">
+        <v>674</v>
+      </c>
+      <c r="K225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="9:11">
+      <c r="I226" t="s">
+        <v>79</v>
+      </c>
+      <c r="J226" t="s">
+        <v>400</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="9:11">
+      <c r="I227" t="s">
+        <v>675</v>
+      </c>
+      <c r="J227" t="s">
+        <v>324</v>
+      </c>
+      <c r="K227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="9:11">
+      <c r="I228" t="s">
+        <v>676</v>
+      </c>
+      <c r="J228" t="s">
+        <v>510</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="9:11">
+      <c r="I229" t="s">
+        <v>677</v>
+      </c>
+      <c r="J229" t="s">
+        <v>678</v>
+      </c>
+      <c r="K229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="9:11">
+      <c r="I230" t="s">
+        <v>679</v>
+      </c>
+      <c r="J230" t="s">
+        <v>680</v>
+      </c>
+      <c r="K230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="9:11">
+      <c r="I231" t="s">
+        <v>681</v>
+      </c>
+      <c r="J231" t="s">
+        <v>682</v>
+      </c>
+      <c r="K231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="9:11">
+      <c r="I232" t="s">
+        <v>683</v>
+      </c>
+      <c r="J232" t="s">
+        <v>310</v>
+      </c>
+      <c r="K232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="9:11">
+      <c r="I233" t="s">
+        <v>684</v>
+      </c>
+      <c r="J233" t="s">
+        <v>334</v>
+      </c>
+      <c r="K233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="9:11">
+      <c r="I234" t="s">
+        <v>685</v>
+      </c>
+      <c r="J234" t="s">
+        <v>530</v>
+      </c>
+      <c r="K234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="9:11">
+      <c r="I235" t="s">
+        <v>686</v>
+      </c>
+      <c r="J235" t="s">
+        <v>687</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="9:11">
+      <c r="I236" t="s">
+        <v>688</v>
+      </c>
+      <c r="J236" t="s">
+        <v>439</v>
+      </c>
+      <c r="K236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="9:11">
+      <c r="I237" t="s">
+        <v>689</v>
+      </c>
+      <c r="J237" t="s">
+        <v>535</v>
+      </c>
+      <c r="K237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="9:11">
+      <c r="I238" t="s">
+        <v>690</v>
+      </c>
+      <c r="J238" t="s">
+        <v>308</v>
+      </c>
+      <c r="K238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="9:11">
+      <c r="I239" t="s">
+        <v>51</v>
+      </c>
+      <c r="J239" t="s">
+        <v>691</v>
+      </c>
+      <c r="K239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="9:11">
+      <c r="I240" t="s">
+        <v>692</v>
+      </c>
+      <c r="J240" t="s">
+        <v>330</v>
+      </c>
+      <c r="K240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="9:11">
+      <c r="I241" t="s">
+        <v>220</v>
+      </c>
+      <c r="J241" t="s">
+        <v>510</v>
+      </c>
+      <c r="K241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="9:11">
+      <c r="I242" t="s">
+        <v>693</v>
+      </c>
+      <c r="J242" t="s">
+        <v>691</v>
+      </c>
+      <c r="K242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="9:11">
+      <c r="I243" t="s">
+        <v>694</v>
+      </c>
+      <c r="J243" t="s">
+        <v>510</v>
+      </c>
+      <c r="K243">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:C5"/>
+    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="I3:K5"/>
+    <mergeCell ref="M3:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>